--- a/backend/templates/StudentRegistrationTemplate.xlsx
+++ b/backend/templates/StudentRegistrationTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\IP\IP-PhD-Management-Portal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6853DF6C-97B4-4271-9DCB-145EA29329A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341B3C8-5D45-4B88-8E46-29B083134C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,16 +360,18 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,6 +386,21 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry: Format" error="1. No Special Characters allowed other than &quot;/&quot;._x000a_2. No Space is allowed." promptTitle="Enter Course Code/Codes" prompt="1. Alphabet and Numbers only._x000a_2. Multiple Course Codes should be &quot;/&quot; Separated Only_x000a_3. No Space is Allowed._x000a_4. Ex: CSE101/CSE102/CSE103" sqref="D2:D1048576" xr:uid="{53ABD82A-CC40-49A0-9D44-0ACCE1180EAE}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(D2,ROW(INDIRECT("1:"&amp;LEN(D2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ/"))),ISERR(FIND(" ",D2)),ISERR(FIND(",",D2)))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Email ID" error="Only &quot;iiitd.ac.in&quot; Email ID is allowed." promptTitle="Input Format" prompt="Enter &quot;@iiitd.ac.in&quot; Email ID only" sqref="C6:C1048576 C3:C4" xr:uid="{CB0A235C-5E97-4007-A0D8-78C86B188114}">
+      <formula1>AND(RIGHT(C6, 12) = "@iiitd.ac.in", LEN(C6) - LEN(SUBSTITUTE(C6, "@", "")) = 1, LEN(C6) &lt;= 255, COUNTIF(C:C, C6) = 1)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Email ID" error="Only &quot;iiitd.ac.in&quot; Email ID is allowed." promptTitle="Input Format" prompt="Enter &quot;@iiitd.ac.in&quot; Email ID only" sqref="D5" xr:uid="{33D917C6-278D-4293-BB3E-232D83146E74}">
+      <formula1>AND(RIGHT(C8, 12) = "@iiitd.ac.in", LEN(C8) - LEN(SUBSTITUTE(C8, "@", "")) = 1, LEN(C8) &lt;= 255, COUNTIF(C:C, C8) = 1)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Email ID" error="Only &quot;iiitd.ac.in&quot; Email ID is allowed." promptTitle="Input Format" prompt="Enter &quot;@iiitd.ac.in&quot; Email ID only" sqref="C2" xr:uid="{C31C07E4-3E56-4509-826A-5571751893E3}">
+      <formula1>AND(RIGHT(D5, 12) = "@iiitd.ac.in", LEN(D5) - LEN(SUBSTITUTE(D5, "@", "")) = 1, LEN(D5) &lt;= 255, COUNTIF(C:C, D5) = 1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>